--- a/file.xlsx
+++ b/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -35,12 +35,18 @@
     <t>MATHEMATICS</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>[0007-high]</t>
   </si>
   <si>
     <t>MEDICINE</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>[0003-high, 0004-high, 0005-high]</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
   </si>
   <si>
     <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
   <si>
     <t>[0001-high, 0002-high]</t>
@@ -61,13 +70,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="0.2"/>
+      <b val="true"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <protection locked="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -105,88 +123,88 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="B2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n" s="1">
         <v>0.0</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="D4" t="n" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>4.300000190734863</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
+      <c r="E4" t="s" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="n" s="0">
+      <c r="A5" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n" s="1">
         <v>8.0</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="D5" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>13</v>
+      <c r="E5" t="s" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -32,37 +32,37 @@
     <t>Университеты</t>
   </si>
   <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>[0003-high, 0004-high, 0005-high]</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>[0006-high]</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>[0001-high, 0002-high]</t>
+  </si>
+  <si>
     <t>MATHEMATICS</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>[0007-high]</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>[0003-high, 0004-high, 0005-high]</t>
-  </si>
-  <si>
-    <t>LINGUISTICS</t>
-  </si>
-  <si>
-    <t>[0006-high]</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>[0001-high, 0002-high]</t>
   </si>
 </sst>
 </file>
@@ -147,10 +147,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="1">
         <v>8</v>
@@ -164,10 +164,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>11</v>
@@ -178,30 +178,30 @@
         <v>12</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>16</v>
